--- a/excel_files/scorecard_template.xlsx
+++ b/excel_files/scorecard_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishal Kumar\Desktop\SANA-1016 - Scorecard Automation Project\python_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishal Kumar\automation_scorecard\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="29" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="193">
   <si>
     <t>Goal</t>
   </si>
@@ -576,6 +576,84 @@
   <si>
     <t>BCC FY18 OND Burts Bees Color Cosmetics</t>
   </si>
+  <si>
+    <t>team id</t>
+  </si>
+  <si>
+    <t>team name</t>
+  </si>
+  <si>
+    <t>campaign name</t>
+  </si>
+  <si>
+    <t>partner name</t>
+  </si>
+  <si>
+    <t>placement name</t>
+  </si>
+  <si>
+    <t>device type</t>
+  </si>
+  <si>
+    <t>blocking status</t>
+  </si>
+  <si>
+    <t>measured impressions</t>
+  </si>
+  <si>
+    <t>total impressions</t>
+  </si>
+  <si>
+    <t>% measured</t>
+  </si>
+  <si>
+    <t>% see-through</t>
+  </si>
+  <si>
+    <t>% passed</t>
+  </si>
+  <si>
+    <t>% failed</t>
+  </si>
+  <si>
+    <t>% failed by content</t>
+  </si>
+  <si>
+    <t>% failed by geo</t>
+  </si>
+  <si>
+    <t>% failed by keyword</t>
+  </si>
+  <si>
+    <t>% failed by blacklist</t>
+  </si>
+  <si>
+    <t>% failed by language</t>
+  </si>
+  <si>
+    <t>% fraud</t>
+  </si>
+  <si>
+    <t>total viewable rate (total net metrics)</t>
+  </si>
+  <si>
+    <t>total viewable display rate (total net metrics)</t>
+  </si>
+  <si>
+    <t>total viewable video rate (total net metrics)</t>
+  </si>
+  <si>
+    <t>% display ads in view (groupm)</t>
+  </si>
+  <si>
+    <t>% video ads in view (groupm)</t>
+  </si>
+  <si>
+    <t>% display ads in view (publicis)</t>
+  </si>
+  <si>
+    <t>% video ads in view (publicis)</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +663,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,31 +911,6 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1174,7 +1227,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1932,42 +1985,6 @@
     <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="39" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="17" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2152,10 +2169,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2177,6 +2190,696 @@
   </cellStyles>
   <dxfs count="565">
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAF5C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3587,76 +4290,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -5079,86 +5712,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -6581,76 +7134,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -8073,76 +8556,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -9559,86 +9972,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -11055,86 +11388,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -12551,86 +12804,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -14057,96 +14230,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -15570,76 +15653,6 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAF5C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -16436,10 +16449,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataT" displayName="DataT" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="544" dataDxfId="542" headerRowBorderDxfId="543" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataT" displayName="DataT" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="550" dataDxfId="548" headerRowBorderDxfId="549" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Region (Team)" dataDxfId="541">
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Region (Team)" dataDxfId="547">
       <calculatedColumnFormula>IFERROR(
 IF(DataT[[#Headers],[Region (Team)]]="Brand",VLOOKUP(DataT[[#This Row],[Campaign]],Map_Campaign[],2,0),
 IF(DataT[[#Headers],[Region (Team)]]="Region (Team)",VLOOKUP(DataT[[#This Row],[Team]],Map_Team[],2,0),
@@ -16449,87 +16462,78 @@
 IF(DataT[[#Headers],[Region (Team)]]="Creative Size",VLOOKUP(DataT[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
 "[Unmapped]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Team" dataDxfId="540"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Campaign" dataDxfId="539"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Partner" dataDxfId="538"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Placement" dataDxfId="537"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0000-00007A000000}" name="Device Type" dataDxfId="536"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Blocking Status" dataDxfId="535"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Measured Impressions" dataDxfId="534" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Total Impressions" dataDxfId="533" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="532" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="531" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="530" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="529" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="528" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="527" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="526" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="525" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="524" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="523" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="522" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="521" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="520" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="519" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="518" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="517" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="516" dataCellStyle="Percent"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Team" dataDxfId="546"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Campaign" dataDxfId="545"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Partner" dataDxfId="544"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Placement" dataDxfId="543"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0000-00007A000000}" name="Device Type" dataDxfId="542"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Blocking Status" dataDxfId="541"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Measured Impressions" dataDxfId="540" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Total Impressions" dataDxfId="539" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="538" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="537" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="536" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="535" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="534" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="533" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="532" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="531" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="530" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="529" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="528" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="527" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="526" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="525" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="524" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="523" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="522" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="DataCP" displayName="DataCP" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="363" dataDxfId="361" headerRowBorderDxfId="362" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="DataCP" displayName="DataCP" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="391" dataDxfId="389" headerRowBorderDxfId="390" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0900-00004A000000}" name="Brand" dataDxfId="360">
-      <calculatedColumnFormula>IFERROR(
-IF(DataT[[#Headers],[Region (Team)]]="Brand",VLOOKUP(DataCP[[#This Row],[Campaign]],Map_Campaign[],2,0),
-IF(DataT[[#Headers],[Region (Team)]]="Region (Team)",VLOOKUP(DataCP[[#This Row],[Team]],Map_Team[],2,0),
-IF(DataT[[#Headers],[Region (Team)]]="Region (Campaign)",VLOOKUP(DataCP[[#This Row],[Campaign]],Map_Campaign[],3,0),
-IF(DataT[[#Headers],[Region (Team)]]="Partner Type",VLOOKUP(DataCP[[#This Row],[Partner]],Map_Partner[],2,0),
-IF(DataT[[#Headers],[Region (Team)]]="Device Type",VLOOKUP(DataCP[[#This Row],[Placement]],Map_Placement[],3,0),
-IF(DataT[[#Headers],[Region (Team)]]="Creative Size",VLOOKUP(DataCP[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
-"[Unmapped]")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0900-000049000000}" name="Team" dataDxfId="359"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0900-000047000000}" name="Campaign" dataDxfId="358"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="Partner" dataDxfId="357"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0900-000026000000}" name="Placement" dataDxfId="356"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0900-00007A000000}" name="Device Type" dataDxfId="355"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0900-00004B000000}" name="Blocking Status" dataDxfId="354"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0900-000048000000}" name="Measured Impressions" dataDxfId="353" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Total Impressions" dataDxfId="352" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="351" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="350" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0900-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="349" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0900-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="348" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0900-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="347" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0900-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="346" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="345" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="344" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="343" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="342" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="341" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="340" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0900-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="339" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="338" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0900-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="337" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="336" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="335" dataCellStyle="Percent"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0900-00004A000000}" name="Brand" dataDxfId="388"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0900-000049000000}" name="Team" dataDxfId="387"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0900-000047000000}" name="Campaign" dataDxfId="386"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="Partner" dataDxfId="385"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0900-000026000000}" name="Placement" dataDxfId="384"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0900-00007A000000}" name="Device Type" dataDxfId="383"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0900-00004B000000}" name="Blocking Status" dataDxfId="382"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0900-000048000000}" name="Measured Impressions" dataDxfId="381" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Total Impressions" dataDxfId="380" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="379" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="378" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0900-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="377" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0900-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="376" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0900-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="375" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0900-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="374" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="373" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="372" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="371" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="370" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="369" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="368" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0900-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="367" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="366" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0900-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="365" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="364" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="363" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="BenchmarksCP" displayName="BenchmarksCP" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="334" dataDxfId="333">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="BenchmarksCP" displayName="BenchmarksCP" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="362" dataDxfId="361">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="332"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="331"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="330">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="360"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="359"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="358">
       <calculatedColumnFormula array="1">SUM(
 (DataCP[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -16541,16 +16545,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="329"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="328"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="327"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="326"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="325"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="324"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="323"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="322"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="321"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="320">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="357"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="356"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="355"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="354"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="353"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="352"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="351"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="350"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="349"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="348">
       <calculatedColumnFormula array="1">SUM(
 IF(DataCP[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -16565,30 +16569,30 @@
 IF(DataCP[Brand]=#REF!,
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="319"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="318"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="317"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="316"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="347"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="346"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="345"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="344"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ColumnCP" displayName="ColumnCP" ref="J6:J13" totalsRowShown="0" headerRowDxfId="315" dataDxfId="313" headerRowBorderDxfId="314" tableBorderDxfId="312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ColumnCP" displayName="ColumnCP" ref="J6:J13" totalsRowShown="0" headerRowDxfId="343" dataDxfId="341" headerRowBorderDxfId="342" tableBorderDxfId="340">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000026000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Metric" dataDxfId="311"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Metric" dataDxfId="339"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="DataPP" displayName="DataPP" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="303" dataDxfId="301" headerRowBorderDxfId="302" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="DataPP" displayName="DataPP" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="338" dataDxfId="336" headerRowBorderDxfId="337" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0C00-00004A000000}" name="Partner Type" dataDxfId="300">
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0C00-00004A000000}" name="Partner Type" dataDxfId="335">
       <calculatedColumnFormula>IFERROR(
 IF(DataT[[#Headers],[Region (Team)]]="Brand",VLOOKUP(DataPP[[#This Row],[Campaign]],Map_Campaign[],2,0),
 IF(DataT[[#Headers],[Region (Team)]]="Region (Team)",VLOOKUP(DataPP[[#This Row],[Team]],Map_Team[],2,0),
@@ -16598,43 +16602,43 @@
 IF(DataT[[#Headers],[Region (Team)]]="Creative Size",VLOOKUP(DataPP[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
 "[Unmapped]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0C00-000049000000}" name="Team" dataDxfId="299"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0C00-000047000000}" name="Campaign" dataDxfId="298"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="Partner" dataDxfId="297"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0C00-000026000000}" name="Placement" dataDxfId="296"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0C00-00007A000000}" name="Device Type" dataDxfId="295"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0C00-00004B000000}" name="Blocking Status" dataDxfId="294"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0C00-000048000000}" name="Measured Impressions" dataDxfId="293" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Total Impressions" dataDxfId="292" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="291" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="290" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0C00-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="289" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0C00-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="288" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0C00-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="287" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0C00-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="286" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="285" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="284" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="283" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="282" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="281" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="280" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0C00-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="279" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="278" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0C00-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="277" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="276" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="275" dataCellStyle="Percent"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0C00-000049000000}" name="Team" dataDxfId="334"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0C00-000047000000}" name="Campaign" dataDxfId="333"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="Partner" dataDxfId="332"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0C00-000026000000}" name="Placement" dataDxfId="331"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0C00-00007A000000}" name="Device Type" dataDxfId="330"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0C00-00004B000000}" name="Blocking Status" dataDxfId="329"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0C00-000048000000}" name="Measured Impressions" dataDxfId="328" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Total Impressions" dataDxfId="327" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="326" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="325" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0C00-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="324" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0C00-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="323" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0C00-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="322" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0C00-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="321" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="320" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="319" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="318" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="317" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="316" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="315" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0C00-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="314" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="313" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0C00-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="312" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="311" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="310" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="BenchmarksPP" displayName="BenchmarksPP" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="274" dataDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="BenchmarksPP" displayName="BenchmarksPP" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="309" dataDxfId="308">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="272"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="271"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="270">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="307"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="306"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="305">
       <calculatedColumnFormula array="1">SUM(
 (DataPP[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -16646,16 +16650,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataPP[Total Impressions],ROW(DataPP[Total Impressions])-MIN(ROW(DataPP[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0D00-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="269"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="268"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="267"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="266"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="265"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="264"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="263"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="262"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="261"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="260">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0D00-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="304"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="303"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="302"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="301"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="300"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="299"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="298"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="297"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="296"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="295">
       <calculatedColumnFormula array="1">SUM(
 IF(DataPP[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -16670,67 +16674,67 @@
 IF(DataPP[Partner Type]=#REF!,
 SUBTOTAL(9,OFFSET(DataPP[Total Impressions],ROW(DataPP[Total Impressions])-MIN(ROW(DataPP[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="259"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0D00-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="258"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="257"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0D00-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="256"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="294"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0D00-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="293"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="292"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0D00-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="291"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="ColumnPP" displayName="ColumnPP" ref="J6:J13" totalsRowShown="0" headerRowDxfId="255" dataDxfId="253" headerRowBorderDxfId="254" tableBorderDxfId="252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="ColumnPP" displayName="ColumnPP" ref="J6:J13" totalsRowShown="0" headerRowDxfId="290" dataDxfId="288" headerRowBorderDxfId="289" tableBorderDxfId="287">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000027000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Metric" dataDxfId="251"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Metric" dataDxfId="286"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="DataD" displayName="DataD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="244" dataDxfId="242" headerRowBorderDxfId="243" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="DataD" displayName="DataD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="285" dataDxfId="283" headerRowBorderDxfId="284" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0F00-00004A000000}" name="NO MAPPING" dataDxfId="241"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0F00-000049000000}" name="Team" dataDxfId="240"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0F00-000047000000}" name="Campaign" dataDxfId="239"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0F00-000012000000}" name="Partner" dataDxfId="238"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0F00-000026000000}" name="Placement" dataDxfId="237"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0F00-00007A000000}" name="Device Type" dataDxfId="236"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0F00-00004B000000}" name="Blocking Status" dataDxfId="235"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0F00-000048000000}" name="Measured Impressions" dataDxfId="234" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Total Impressions" dataDxfId="233" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="232" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="231" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0F00-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="230" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0F00-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="229" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0F00-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="228" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0F00-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="227" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="226" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="225" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="224" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="223" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="222" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="221" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0F00-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="220" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="219" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0F00-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="218" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="217" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="216" dataCellStyle="Percent"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0F00-00004A000000}" name="NO MAPPING" dataDxfId="282"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0F00-000049000000}" name="Team" dataDxfId="281"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0F00-000047000000}" name="Campaign" dataDxfId="280"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0F00-000012000000}" name="Partner" dataDxfId="279"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0F00-000026000000}" name="Placement" dataDxfId="278"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0F00-00007A000000}" name="Device Type" dataDxfId="277"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0F00-00004B000000}" name="Blocking Status" dataDxfId="276"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0F00-000048000000}" name="Measured Impressions" dataDxfId="275" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Total Impressions" dataDxfId="274" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="273" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="272" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0F00-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="271" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0F00-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="270" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0F00-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="269" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0F00-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="268" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="267" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="266" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="265" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="264" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="263" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="262" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0F00-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="261" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="260" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0F00-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="259" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="258" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="257" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="BenchmarksD" displayName="BenchmarksD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="BenchmarksD" displayName="BenchmarksD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="256" dataDxfId="255">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="212"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1000-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="211">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="254"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="253"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1000-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="252">
       <calculatedColumnFormula array="1">SUM(
 (DataD[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -16742,16 +16746,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataD[Total Impressions],ROW(DataD[Total Impressions])-MIN(ROW(DataD[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1000-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="210"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1000-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="209"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="208"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="207"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="206"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="205"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="204"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="203"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="202"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1000-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="201">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1000-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="251"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1000-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="250"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="248"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="247"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="245"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="244"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="243"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1000-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="242">
       <calculatedColumnFormula array="1">SUM(
 IF(DataD[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -16766,30 +16770,30 @@
 IF(DataD[NO MAPPING]=#REF!,
 SUBTOTAL(9,OFFSET(DataD[Total Impressions],ROW(DataD[Total Impressions])-MIN(ROW(DataD[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="200"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1000-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="199"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="198"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="197"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="241"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1000-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="240"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="239"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="238"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="ColumnD" displayName="ColumnD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="196" dataDxfId="194" headerRowBorderDxfId="195" tableBorderDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="ColumnD" displayName="ColumnD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="237" dataDxfId="235" headerRowBorderDxfId="236" tableBorderDxfId="234">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000028000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Metric" dataDxfId="192"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Metric" dataDxfId="233"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="DataCD" displayName="DataCD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="DataCD" displayName="DataCD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="232" dataDxfId="230" headerRowBorderDxfId="231" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-1200-00004A000000}" name="Brand" dataDxfId="182">
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-1200-00004A000000}" name="Brand" dataDxfId="229">
       <calculatedColumnFormula>IFERROR(
 IF(DataCD[[#Headers],[Brand]]="Brand",VLOOKUP(DataCD[[#This Row],[Campaign]],Map_Campaign[],2,0),
 IF(DataCD[[#Headers],[Brand]]="Region (Team)",VLOOKUP(DataCD[[#This Row],[Team]],Map_Team[],2,0),
@@ -16799,43 +16803,43 @@
 IF(DataCD[[#Headers],[Brand]]="Creative Size",VLOOKUP(DataCD[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
 "[Unmapped]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-1200-000049000000}" name="Team" dataDxfId="181"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-1200-000047000000}" name="Campaign" dataDxfId="180"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1200-000012000000}" name="Partner" dataDxfId="179"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-1200-000026000000}" name="Placement" dataDxfId="178"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-1200-00007A000000}" name="Device Type" dataDxfId="177"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-1200-00004B000000}" name="Blocking Status" dataDxfId="176"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-1200-000048000000}" name="Measured Impressions" dataDxfId="175" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Total Impressions" dataDxfId="174" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="173" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="172" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-1200-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="171" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-1200-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="170" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-1200-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="169" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-1200-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="168" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="167" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="166" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="165" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1200-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="164" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1200-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="163" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="162" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-1200-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="161" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1200-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="160" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-1200-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="159" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="158" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1200-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="157" dataCellStyle="Percent"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-1200-000049000000}" name="Team" dataDxfId="228"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-1200-000047000000}" name="Campaign" dataDxfId="227"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1200-000012000000}" name="Partner" dataDxfId="226"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-1200-000026000000}" name="Placement" dataDxfId="225"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-1200-00007A000000}" name="Device Type" dataDxfId="224"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-1200-00004B000000}" name="Blocking Status" dataDxfId="223"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-1200-000048000000}" name="Measured Impressions" dataDxfId="222" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Total Impressions" dataDxfId="221" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="220" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="219" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-1200-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="218" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-1200-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="217" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-1200-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="216" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-1200-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="215" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="214" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="213" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="212" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1200-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="211" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1200-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="210" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="209" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-1200-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="208" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1200-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="207" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-1200-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="206" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="205" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1200-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="204" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BenchmarksT" displayName="BenchmarksT" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="515" dataDxfId="514">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BenchmarksT" displayName="BenchmarksT" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="521" dataDxfId="520">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="513"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="512"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="511">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="519"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="518"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="517">
       <calculatedColumnFormula array="1">SUM(
 (DataT[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -16847,16 +16851,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataT[Total Impressions],ROW(DataT[Total Impressions])-MIN(ROW(DataT[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="510"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="509"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="508"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="507"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="506"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="505"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="504"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="503"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="502"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="501">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="516"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="515"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="514"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="513"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="512"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="511"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="510"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="509"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="508"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="507">
       <calculatedColumnFormula array="1">SUM(
 IF(DataT[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -16871,22 +16875,22 @@
 IF(DataT[Region (Team)]=ColumnT[[#This Row],[Metric]],
 SUBTOTAL(9,OFFSET(DataT[Total Impressions],ROW(DataT[Total Impressions])-MIN(ROW(DataT[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="500"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="499"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="498"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="497"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="506"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="505"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="504"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="503"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="BenchmarksCD" displayName="BenchmarksCD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="BenchmarksCD" displayName="BenchmarksCD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="153"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1300-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="152">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="200"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1300-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="199">
       <calculatedColumnFormula array="1">SUM(
 (DataCD[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -16898,16 +16902,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataCD[Total Impressions],ROW(DataCD[Total Impressions])-MIN(ROW(DataCD[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1300-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="151"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1300-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="150"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1300-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="148"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="146"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="145"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="144"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="143"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1300-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="142">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1300-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="198"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1300-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="197"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1300-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="190"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1300-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="189">
       <calculatedColumnFormula array="1">SUM(
 IF(DataCD[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -16922,30 +16926,30 @@
 IF(DataCD[Brand]=#REF!,
 SUBTOTAL(9,OFFSET(DataCD[Total Impressions],ROW(DataCD[Total Impressions])-MIN(ROW(DataCD[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="141"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1300-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="139"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="188"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1300-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="187"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="186"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="ColumnCD" displayName="ColumnCD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="ColumnCD" displayName="ColumnCD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="184" dataDxfId="182" headerRowBorderDxfId="183" tableBorderDxfId="181">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000029000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Metric" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Metric" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="DataPD" displayName="DataPD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="DataPD" displayName="DataPD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-1500-00004A000000}" name="Partner Type" dataDxfId="122">
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-1500-00004A000000}" name="Partner Type" dataDxfId="176">
       <calculatedColumnFormula>IFERROR(
 IF(DataPD[[#Headers],[Partner Type]]="Brand",VLOOKUP(DataPD[[#This Row],[Campaign]],Map_Campaign[],2,0),
 IF(DataPD[[#Headers],[Partner Type]]="Region (Team)",VLOOKUP(DataPD[[#This Row],[Team]],Map_Team[],2,0),
@@ -16955,43 +16959,43 @@
 IF(DataPD[[#Headers],[Partner Type]]="Creative Size",VLOOKUP(DataPD[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
 "[Unmapped]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-1500-000049000000}" name="Team" dataDxfId="121"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-1500-000047000000}" name="Campaign" dataDxfId="120"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1500-000012000000}" name="Partner" dataDxfId="119"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-1500-000026000000}" name="Placement" dataDxfId="118"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-1500-00007A000000}" name="Device Type" dataDxfId="117"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-1500-00004B000000}" name="Blocking Status" dataDxfId="116"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-1500-000048000000}" name="Measured Impressions" dataDxfId="115" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Total Impressions" dataDxfId="114" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="113" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="112" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-1500-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="111" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-1500-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="110" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-1500-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="109" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-1500-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="108" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="107" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="106" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="105" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="104" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="103" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="102" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-1500-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="101" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="100" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-1500-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="99" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="98" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="97" dataCellStyle="Percent"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-1500-000049000000}" name="Team" dataDxfId="175"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-1500-000047000000}" name="Campaign" dataDxfId="174"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1500-000012000000}" name="Partner" dataDxfId="173"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-1500-000026000000}" name="Placement" dataDxfId="172"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-1500-00007A000000}" name="Device Type" dataDxfId="171"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-1500-00004B000000}" name="Blocking Status" dataDxfId="170"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-1500-000048000000}" name="Measured Impressions" dataDxfId="169" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Total Impressions" dataDxfId="168" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="167" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="166" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-1500-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="165" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-1500-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="164" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-1500-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="163" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-1500-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="162" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="161" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="160" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="159" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="158" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="157" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="156" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-1500-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="155" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="154" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-1500-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="153" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="152" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="151" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="BenchmarksPD" displayName="BenchmarksPD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="BenchmarksPD" displayName="BenchmarksPD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="93"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1600-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="147"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1600-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="146">
       <calculatedColumnFormula array="1">SUM(
 (DataPD[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -17003,16 +17007,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataPD[Total Impressions],ROW(DataPD[Total Impressions])-MIN(ROW(DataPD[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1600-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="91"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1600-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="90"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1600-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1600-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="83"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1600-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="82">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1600-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="145"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1600-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="144"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1600-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="141"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="140"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="139"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="138"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1600-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="137"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1600-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="136">
       <calculatedColumnFormula array="1">SUM(
 IF(DataPD[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -17027,30 +17031,30 @@
 IF(DataPD[Partner Type]=#REF!,
 SUBTOTAL(9,OFFSET(DataPD[Total Impressions],ROW(DataPD[Total Impressions])-MIN(ROW(DataPD[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1600-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="81"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1600-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1600-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1600-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1600-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="135"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1600-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1600-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="133"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1600-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="ColumnPD" displayName="ColumnPD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="ColumnPD" displayName="ColumnPD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-00002A000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Metric" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Metric" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="DataCPD" displayName="DataCPD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="DataCPD" displayName="DataCPD" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" dataCellStyle="Percent">
   <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-1800-00004A000000}" name="Brand" dataDxfId="63">
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-1800-00004A000000}" name="Brand" dataDxfId="123">
       <calculatedColumnFormula>IFERROR(
 IF(DataCPD[[#Headers],[Brand]]="Brand",VLOOKUP(DataCPD[[#This Row],[Campaign]],Map_Campaign[],2,0),
 IF(DataCPD[[#Headers],[Brand]]="Region (Team)",VLOOKUP(DataCPD[[#This Row],[Team]],Map_Team[],2,0),
@@ -17060,43 +17064,43 @@
 IF(DataCPD[[#Headers],[Brand]]="Creative Size",VLOOKUP(DataCPD[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
 "[Unmapped]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-1800-000049000000}" name="Team" dataDxfId="62"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-1800-000047000000}" name="Campaign" dataDxfId="61"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1800-000012000000}" name="Partner" dataDxfId="60"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-1800-000026000000}" name="Placement" dataDxfId="59"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-1800-00007A000000}" name="Device Type" dataDxfId="58"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-1800-00004B000000}" name="Blocking Status" dataDxfId="57"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-1800-000048000000}" name="Measured Impressions" dataDxfId="56" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Total Impressions" dataDxfId="55" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="54" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="53" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-1800-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="52" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-1800-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="51" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-1800-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="50" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-1800-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="49" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="48" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1800-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="47" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="46" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1800-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="45" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1800-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="44" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="43" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-1800-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="42" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1800-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-1800-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1800-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-1800-000049000000}" name="Team" dataDxfId="122"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-1800-000047000000}" name="Campaign" dataDxfId="121"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1800-000012000000}" name="Partner" dataDxfId="120"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-1800-000026000000}" name="Placement" dataDxfId="119"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-1800-00007A000000}" name="Device Type" dataDxfId="118"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-1800-00004B000000}" name="Blocking Status" dataDxfId="117"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-1800-000048000000}" name="Measured Impressions" dataDxfId="116" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Total Impressions" dataDxfId="115" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="114" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="113" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-1800-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="112" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-1800-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="111" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-1800-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="110" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-1800-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="109" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="108" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1800-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="107" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="106" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1800-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="105" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1800-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="104" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="103" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-1800-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="102" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1800-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="101" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-1800-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="100" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="99" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1800-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="98" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="BenchmarksCPD" displayName="BenchmarksCPD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="BenchmarksCPD" displayName="BenchmarksCPD" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="34"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1900-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="94"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1900-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="93">
       <calculatedColumnFormula array="1">SUM(
 (DataCPD[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -17108,16 +17112,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataCPD[Total Impressions],ROW(DataCPD[Total Impressions])-MIN(ROW(DataCPD[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1900-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="32"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1900-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1900-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1900-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="24"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1900-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="23">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1900-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="92"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1900-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="91"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1900-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1900-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="84"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1900-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="83">
       <calculatedColumnFormula array="1">SUM(
 IF(DataCPD[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -17132,38 +17136,38 @@
 IF(DataCPD[Brand]=#REF!,
 SUBTOTAL(9,OFFSET(DataCPD[Total Impressions],ROW(DataCPD[Total Impressions])-MIN(ROW(DataCPD[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1900-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="22"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1900-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1900-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1900-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1900-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="82"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1900-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1900-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1900-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="ColumnCPD" displayName="ColumnCPD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="ColumnCPD" displayName="ColumnCPD" ref="J6:J13" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-00002B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Metric" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Metric" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Benchmark_Legend" displayName="Benchmark_Legend" ref="B4:C21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Benchmark_Legend" displayName="Benchmark_Legend" ref="B4:C21" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="B4:C21" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Metric" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="Client Goals" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Metric" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="Client Goals" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Map_Campaign" displayName="Map_Campaign" ref="E4:G7" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Map_Campaign" displayName="Map_Campaign" ref="E4:G7" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="E4:G7" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Campaign"/>
@@ -17175,17 +17179,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ColumnT" displayName="ColumnT" ref="J6:J13" totalsRowShown="0" headerRowDxfId="496" dataDxfId="494" headerRowBorderDxfId="495" tableBorderDxfId="493">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ColumnT" displayName="ColumnT" ref="J6:J13" totalsRowShown="0" headerRowDxfId="502" dataDxfId="500" headerRowBorderDxfId="501" tableBorderDxfId="499">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000023000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Metric" dataDxfId="492"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Metric" dataDxfId="498"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Map_Team" displayName="Map_Team" ref="B4:C7" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Map_Team" displayName="Map_Team" ref="B4:C7" totalsRowShown="0" headerRowDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="B4:C7" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Team"/>
@@ -17196,7 +17200,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Map_Partner" displayName="Map_Partner" ref="I4:J7" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Map_Partner" displayName="Map_Partner" ref="I4:J7" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="I4:J7" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Partner"/>
@@ -17207,7 +17211,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Map_Placement" displayName="Map_Placement" ref="L4:N81" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Map_Placement" displayName="Map_Placement" ref="L4:N81" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="L4:N81" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Placement"/>
@@ -17219,47 +17223,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DataC" displayName="DataC" ref="B15:AA30" totalsRowShown="0" headerRowDxfId="483" dataDxfId="481" headerRowBorderDxfId="482" dataCellStyle="Percent">
-  <autoFilter ref="B15:AA30" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DataC" displayName="DataC" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="497" dataDxfId="495" headerRowBorderDxfId="496" dataCellStyle="Percent">
+  <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0300-00004A000000}" name="Brand" dataDxfId="480"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0300-000049000000}" name="Team" dataDxfId="479"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0300-000047000000}" name="Campaign" dataDxfId="478"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Partner" dataDxfId="477"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0300-000026000000}" name="Placement" dataDxfId="476"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0300-00007A000000}" name="Device Type" dataDxfId="475"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0300-00004B000000}" name="Blocking Status" dataDxfId="474"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0300-000048000000}" name="Measured Impressions" dataDxfId="473" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Total Impressions" dataDxfId="472" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="471" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="470" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0300-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="469" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0300-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="468" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0300-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="467" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0300-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="466" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="465" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="464" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="463" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="462" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="461" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="460" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0300-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="459" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="458" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0300-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="457" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="456" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="455" dataCellStyle="Percent"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0300-00004A000000}" name="Brand" dataDxfId="494"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0300-000049000000}" name="Team" dataDxfId="493"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0300-000047000000}" name="Campaign" dataDxfId="492"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Partner" dataDxfId="491"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0300-000026000000}" name="Placement" dataDxfId="490"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0300-00007A000000}" name="Device Type" dataDxfId="489"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0300-00004B000000}" name="Blocking Status" dataDxfId="488"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0300-000048000000}" name="Measured Impressions" dataDxfId="487" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Total Impressions" dataDxfId="486" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="485" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="484" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0300-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="483" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0300-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="482" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0300-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="481" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0300-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="480" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="479" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="478" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="477" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="476" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="475" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="474" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0300-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="473" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="472" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0300-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="471" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="470" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="469" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="BenchmarksC" displayName="BenchmarksC" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="454" dataDxfId="453">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="BenchmarksC" displayName="BenchmarksC" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="468" dataDxfId="467">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="452"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="451"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="450">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="466"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="465"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="464">
       <calculatedColumnFormula array="1">SUM(
 (DataC[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -17271,16 +17275,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="449"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0400-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="448"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="447"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="446"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="445"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="444"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="443"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="442"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="441"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="440">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="463"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0400-000024000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="462"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="461"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="460"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="459"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="458"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="457"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="456"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="455"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="454">
       <calculatedColumnFormula array="1">SUM(
 IF(DataC[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -17295,67 +17299,67 @@
 IF(DataC[Brand]=#REF!,
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="439"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="438"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="437"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="436"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="453"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="452"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="451"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="450"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="ColumnC" displayName="ColumnC" ref="J6:J13" totalsRowShown="0" headerRowDxfId="435" dataDxfId="433" headerRowBorderDxfId="434" tableBorderDxfId="432">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="ColumnC" displayName="ColumnC" ref="J6:J13" totalsRowShown="0" headerRowDxfId="449" dataDxfId="447" headerRowBorderDxfId="448" tableBorderDxfId="446">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000024000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Metric" dataDxfId="431"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Metric" dataDxfId="445"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="DataP" displayName="DataP" ref="B15:AA30" totalsRowShown="0" headerRowDxfId="423" dataDxfId="421" headerRowBorderDxfId="422" dataCellStyle="Percent">
-  <autoFilter ref="B15:AA30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="DataP" displayName="DataP" ref="B15:AA16" totalsRowShown="0" headerRowDxfId="444" dataDxfId="442" headerRowBorderDxfId="443" dataCellStyle="Percent">
+  <autoFilter ref="B15:AA16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="26">
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0600-00004A000000}" name="Partner Type" dataDxfId="420"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0600-000049000000}" name="Team" dataDxfId="419"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0600-000047000000}" name="Campaign" dataDxfId="418"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="Partner" dataDxfId="417"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0600-000026000000}" name="Placement" dataDxfId="416"/>
-    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0600-000079000000}" name="Device Type" dataDxfId="415"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0600-00004B000000}" name="Blocking Status" dataDxfId="414"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0600-000048000000}" name="Measured Impressions" dataDxfId="413" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Total Impressions" dataDxfId="412" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="411" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="410" dataCellStyle="Percent"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0600-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="409" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0600-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="408" dataCellStyle="Percent"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0600-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="407" dataCellStyle="Percent"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0600-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="406" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="405" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="404" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="403" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="402" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="401" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="400" dataCellStyle="Percent"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0600-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="399" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="398" dataCellStyle="Percent"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0600-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="397" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="396" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="395" dataCellStyle="Percent"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0600-00004A000000}" name="Partner Type" dataDxfId="441"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0600-000049000000}" name="Team" dataDxfId="440"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0600-000047000000}" name="Campaign" dataDxfId="439"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="Partner" dataDxfId="438"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0600-000026000000}" name="Placement" dataDxfId="437"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0600-000079000000}" name="Device Type" dataDxfId="436"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0600-00004B000000}" name="Blocking Status" dataDxfId="435"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0600-000048000000}" name="Measured Impressions" dataDxfId="434" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Total Impressions" dataDxfId="433" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="432" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="431" dataCellStyle="Percent"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0600-00004D000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="430" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0600-000029000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="429" dataCellStyle="Percent"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0600-00003C000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="428" dataCellStyle="Percent"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0600-00003F000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="427" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="426" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="425" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="424" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="423" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="422" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="421" dataCellStyle="Percent"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0600-00004E000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="420" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="419" dataCellStyle="Percent"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0600-00004C000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="418" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="417" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="416" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="BenchmarksP" displayName="BenchmarksP" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="394" dataDxfId="393">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="BenchmarksP" displayName="BenchmarksP" ref="K6:AA13" totalsRowShown="0" headerRowDxfId="415" dataDxfId="414">
   <autoFilter ref="K6:AA13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="392"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="391"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="390">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Measured Rate _x000a_[% Measured]" dataDxfId="413"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="See-Through Rate _x000a_[% Visible]" dataDxfId="412"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="Brand Safety _x000a_[% Passed]" dataDxfId="411">
       <calculatedColumnFormula array="1">SUM(
 (DataP[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL")*
@@ -17367,16 +17371,16 @@
 '[% Passed']]&lt;&gt;"NULL")*
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="389"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="388"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0700-000024000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="387"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="386"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="385"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="384"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="383"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="382"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="381"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="380">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Brand Safety _x000a_[% Failed]" dataDxfId="410"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="Brand Safety _x000a_[% Failed by Content]" dataDxfId="409"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0700-000024000000}" name="Brand Safety _x000a_[% Failed by Geo]" dataDxfId="408"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Brand Safety _x000a_[% Failed by Keyword]" dataDxfId="407"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Brand Safety _x000a_[% Failed by Blacklist]" dataDxfId="406"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Brand Safety _x000a_[% Failed by Language]" dataDxfId="405"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Fraud _x000a_[% Fraud]" dataDxfId="404"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="403"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Display Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="402"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="Video Viewability _x000a_[Total Viewable Rate (Total Net Metrics)]" dataDxfId="401">
       <calculatedColumnFormula array="1">SUM(
 IF(DataP[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL",
@@ -17391,20 +17395,20 @@
 IF(DataP[Partner Type]=#REF!,
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="379"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="378"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="377"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="376"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="GroupM Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="400"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="GroupM Viewability _x000a_[% Videos Fully in View]" dataDxfId="399"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Publicis Viewability _x000a_[% Display Ads Fully in View]" dataDxfId="398"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Publicis Viewability _x000a_[% Videos Fully in View]" dataDxfId="397"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ColumnP" displayName="ColumnP" ref="J6:J13" totalsRowShown="0" headerRowDxfId="375" dataDxfId="373" headerRowBorderDxfId="374" tableBorderDxfId="372">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ColumnP" displayName="ColumnP" ref="J6:J13" totalsRowShown="0" headerRowDxfId="396" dataDxfId="394" headerRowBorderDxfId="395" tableBorderDxfId="393">
   <autoFilter ref="J6:J13" xr:uid="{00000000-0009-0000-0100-000025000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Metric" dataDxfId="371"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Metric" dataDxfId="392"/>
   </tableColumns>
   <tableStyleInfo name="New IAS" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18143,17 +18147,17 @@
     </row>
     <row r="6" spans="1:122" s="139" customFormat="1" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="144"/>
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="145"/>
       <c r="F6" s="146"/>
-      <c r="G6" s="219" t="s">
+      <c r="G6" s="210" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="220"/>
+      <c r="H6" s="211"/>
       <c r="I6" s="147"/>
       <c r="J6" s="148" t="s">
         <v>1</v>
@@ -18218,10 +18222,10 @@
       <c r="D7" s="153"/>
       <c r="E7" s="145"/>
       <c r="F7" s="146"/>
-      <c r="G7" s="221" t="s">
+      <c r="G7" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="222"/>
+      <c r="H7" s="213"/>
       <c r="I7" s="154"/>
       <c r="J7" s="155" t="s">
         <v>0</v>
@@ -18281,18 +18285,18 @@
     </row>
     <row r="8" spans="1:122" s="139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="144"/>
-      <c r="B8" s="227" t="str">
+      <c r="B8" s="218" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;" Level Scorecard"</f>
         <v>Team Level Scorecard</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="219"/>
       <c r="E8" s="145"/>
       <c r="F8" s="146"/>
-      <c r="G8" s="223" t="s">
+      <c r="G8" s="214" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="224"/>
+      <c r="H8" s="215"/>
       <c r="I8" s="158"/>
       <c r="J8" s="159" t="s">
         <v>16</v>
@@ -18369,11 +18373,11 @@
     </row>
     <row r="9" spans="1:122" s="139" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="144"/>
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="217"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="208"/>
       <c r="E9" s="165"/>
       <c r="F9" s="146"/>
       <c r="G9" s="166" t="s">
@@ -19204,10 +19208,10 @@
       <c r="D12" s="153"/>
       <c r="E12" s="145"/>
       <c r="F12" s="146"/>
-      <c r="G12" s="218" t="s">
+      <c r="G12" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="218"/>
+      <c r="H12" s="209"/>
       <c r="I12" s="151"/>
       <c r="J12" s="179" t="s">
         <v>7</v>
@@ -19238,10 +19242,10 @@
       <c r="D13" s="183"/>
       <c r="E13" s="184"/>
       <c r="F13" s="146"/>
-      <c r="G13" s="218" t="s">
+      <c r="G13" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="218"/>
+      <c r="H13" s="209"/>
       <c r="I13" s="151"/>
       <c r="J13" s="185" t="s">
         <v>6</v>
@@ -19523,25 +19527,25 @@
     <mergeCell ref="B8:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:AA16">
-    <cfRule type="cellIs" dxfId="550" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:G9 A1:XFD8 I9:XFD9 A10:XFD1048576">
-    <cfRule type="expression" dxfId="549" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:AA11 K16:AA16">
-    <cfRule type="expression" dxfId="548" priority="6">
+    <cfRule type="expression" dxfId="57" priority="6">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="7">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="546" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>ISERROR(H9)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19614,10 +19618,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="270"/>
+      <c r="C2" s="261"/>
     </row>
     <row r="3" spans="2:3" ht="14" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -20815,12 +20819,12 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="10" ySplit="15" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21275,10 +21279,10 @@
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="229" t="s">
+      <c r="G6" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="230"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="90"/>
       <c r="J6" s="115" t="s">
         <v>1</v>
@@ -21342,10 +21346,10 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="239"/>
+      <c r="H7" s="230"/>
       <c r="I7" s="109"/>
       <c r="J7" s="126" t="s">
         <v>0</v>
@@ -21411,10 +21415,10 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="241"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="129"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
@@ -21489,11 +21493,11 @@
       </c>
     </row>
     <row r="9" spans="1:121" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="118" t="s">
@@ -21518,7 +21522,7 @@
 IF((DataC[Measured Rate 
 '[% Measured']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>0.7039736901229996</v>
+        <v>0.70397369012300004</v>
       </c>
       <c r="L9" s="100">
         <f t="array" aca="1" ref="L9" ca="1">SUM(
@@ -21532,7 +21536,7 @@
 IF((DataC[See-Through Rate 
 '[% Visible']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>0.95292479761899984</v>
+        <v>0.95292479761900006</v>
       </c>
       <c r="M9" s="112">
         <f t="array" aca="1" ref="M9" ca="1">SUM(
@@ -21546,7 +21550,7 @@
 IF((DataC[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>4.7075202381199999E-2</v>
+        <v>4.7075202381199992E-2</v>
       </c>
       <c r="N9" s="112">
         <f t="array" aca="1" ref="N9" ca="1">SUM(
@@ -21560,7 +21564,7 @@
 IF((DataC[Brand Safety 
 '[% Failed']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>1.584180586379999E-2</v>
+        <v>1.5841805863800001E-2</v>
       </c>
       <c r="O9" s="112">
         <f t="array" aca="1" ref="O9" ca="1">SUM(
@@ -21574,7 +21578,7 @@
 IF((DataC[Brand Safety 
 '[% Failed by Content']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>4.7008580414999987E-4</v>
+        <v>4.7008580414999992E-4</v>
       </c>
       <c r="P9" s="112">
         <f t="array" aca="1" ref="P9" ca="1">SUM(
@@ -21588,7 +21592,7 @@
 IF((DataC[Brand Safety 
 '[% Failed by Geo']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>2.1768992240599996E-2</v>
+        <v>2.1768992240599999E-2</v>
       </c>
       <c r="Q9" s="100">
         <f t="array" aca="1" ref="Q9" ca="1">SUM(
@@ -21602,7 +21606,7 @@
 IF((DataC[Brand Safety 
 '[% Failed by Keyword']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>1.7364074924199996E-4</v>
+        <v>1.7364074924200001E-4</v>
       </c>
       <c r="R9" s="100">
         <f t="array" aca="1" ref="R9" ca="1">SUM(
@@ -21630,7 +21634,7 @@
 IF((DataC[Brand Safety 
 '[% Failed by Language']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>9.2195017271999927E-3</v>
+        <v>9.2195017271999996E-3</v>
       </c>
       <c r="T9" s="100">
         <f t="array" aca="1" ref="T9" ca="1">SUM(
@@ -21644,7 +21648,7 @@
 IF((DataC[Fraud 
 '[% Fraud']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Total Impressions],ROW(DataC[Total Impressions])-MIN(ROW(DataC[Total Impressions])),0,1))))</f>
-        <v>0.64080593717799972</v>
+        <v>0.64080593717800005</v>
       </c>
       <c r="U9" s="100">
         <f t="array" aca="1" ref="U9" ca="1">SUM(
@@ -21657,7 +21661,7 @@
 IF((DataC[Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Measured Impressions],ROW(DataC[Measured Impressions])-MIN(ROW(DataC[Measured Impressions])),0,1))))</f>
-        <v>0.63650054192099981</v>
+        <v>0.63650054192100003</v>
       </c>
       <c r="V9" s="100">
         <f t="array" aca="1" ref="V9" ca="1">SUM(
@@ -21670,7 +21674,7 @@
 IF((DataC[Display Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataC[Measured Impressions],ROW(DataC[Measured Impressions])-MIN(ROW(DataC[Measured Impressions])),0,1))))</f>
-        <v>0.85731169793699979</v>
+        <v>0.85731169793700013</v>
       </c>
       <c r="W9" s="112">
         <f t="array" aca="1" ref="W9" ca="1">SUM(
@@ -21739,10 +21743,10 @@
       </c>
     </row>
     <row r="10" spans="1:121" s="18" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="234"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="236"/>
+      <c r="A10" s="225"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="23"/>
       <c r="F10" s="28"/>
       <c r="G10" s="116" t="s">
@@ -22027,10 +22031,10 @@
       </c>
     </row>
     <row r="11" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="231"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
+      <c r="A11" s="222"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="23"/>
       <c r="F11" s="28"/>
       <c r="G11" s="116" t="s">
@@ -22315,16 +22319,16 @@
       </c>
     </row>
     <row r="12" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="234"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="236"/>
+      <c r="A12" s="225"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="23"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="237"/>
+      <c r="H12" s="228"/>
       <c r="I12" s="27"/>
       <c r="J12" s="103" t="s">
         <v>7</v>
@@ -22353,10 +22357,10 @@
       <c r="D13" s="34"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="237"/>
+      <c r="H13" s="228"/>
       <c r="I13" s="27"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
@@ -22614,1136 +22618,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I17" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J17" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K17" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L17" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M17" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N17" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O17" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P17" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q17" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R17" s="213">
-        <v>0</v>
-      </c>
-      <c r="S17" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T17" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U17" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V17" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W17" s="215">
-        <v>0</v>
-      </c>
-      <c r="X17" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="213"/>
+    <row r="17" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB17" s="10"/>
       <c r="DP17" s="15"/>
       <c r="DQ17" s="10"/>
     </row>
-    <row r="18" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I18" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J18" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K18" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L18" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M18" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N18" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O18" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P18" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q18" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R18" s="213">
-        <v>0</v>
-      </c>
-      <c r="S18" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T18" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U18" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V18" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W18" s="215">
-        <v>0</v>
-      </c>
-      <c r="X18" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="213"/>
+    <row r="18" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB18" s="10"/>
       <c r="DP18" s="15"/>
       <c r="DQ18" s="10"/>
     </row>
-    <row r="19" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I19" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J19" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K19" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L19" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M19" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N19" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O19" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P19" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q19" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R19" s="213">
-        <v>0</v>
-      </c>
-      <c r="S19" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T19" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U19" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V19" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W19" s="215">
-        <v>0</v>
-      </c>
-      <c r="X19" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="213"/>
+    <row r="19" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB19" s="10"/>
       <c r="DP19" s="15"/>
       <c r="DQ19" s="10"/>
     </row>
-    <row r="20" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I20" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J20" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K20" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L20" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M20" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N20" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O20" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P20" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q20" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R20" s="213">
-        <v>0</v>
-      </c>
-      <c r="S20" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T20" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U20" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V20" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W20" s="215">
-        <v>0</v>
-      </c>
-      <c r="X20" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="213"/>
+    <row r="20" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB20" s="10"/>
       <c r="DP20" s="15"/>
       <c r="DQ20" s="10"/>
     </row>
-    <row r="21" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I21" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J21" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K21" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L21" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M21" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N21" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O21" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P21" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q21" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R21" s="213">
-        <v>0</v>
-      </c>
-      <c r="S21" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T21" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U21" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V21" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W21" s="215">
-        <v>0</v>
-      </c>
-      <c r="X21" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="213"/>
+    <row r="21" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB21" s="10"/>
       <c r="DP21" s="15"/>
       <c r="DQ21" s="10"/>
     </row>
-    <row r="22" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I22" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J22" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K22" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L22" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M22" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N22" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O22" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P22" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q22" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R22" s="213">
-        <v>0</v>
-      </c>
-      <c r="S22" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T22" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U22" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V22" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W22" s="215">
-        <v>0</v>
-      </c>
-      <c r="X22" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="213"/>
+    <row r="22" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB22" s="10"/>
       <c r="DP22" s="15"/>
       <c r="DQ22" s="10"/>
     </row>
-    <row r="23" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I23" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J23" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K23" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L23" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M23" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N23" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O23" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P23" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q23" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R23" s="213">
-        <v>0</v>
-      </c>
-      <c r="S23" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T23" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U23" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V23" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W23" s="215">
-        <v>0</v>
-      </c>
-      <c r="X23" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="213"/>
+    <row r="23" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB23" s="10"/>
       <c r="DP23" s="15"/>
       <c r="DQ23" s="10"/>
     </row>
-    <row r="24" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I24" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J24" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K24" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L24" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M24" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N24" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O24" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P24" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q24" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R24" s="213">
-        <v>0</v>
-      </c>
-      <c r="S24" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T24" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U24" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V24" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W24" s="215">
-        <v>0</v>
-      </c>
-      <c r="X24" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="213"/>
+    <row r="24" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB24" s="10"/>
       <c r="DP24" s="15"/>
       <c r="DQ24" s="10"/>
     </row>
-    <row r="25" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I25" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J25" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K25" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L25" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M25" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N25" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O25" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P25" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q25" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R25" s="213">
-        <v>0</v>
-      </c>
-      <c r="S25" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T25" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U25" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V25" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W25" s="215">
-        <v>0</v>
-      </c>
-      <c r="X25" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="213"/>
+    <row r="25" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB25" s="10"/>
       <c r="DP25" s="15"/>
       <c r="DQ25" s="10"/>
     </row>
-    <row r="26" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I26" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J26" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K26" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L26" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M26" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N26" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O26" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P26" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q26" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R26" s="213">
-        <v>0</v>
-      </c>
-      <c r="S26" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T26" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U26" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V26" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W26" s="215">
-        <v>0</v>
-      </c>
-      <c r="X26" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="213"/>
+    <row r="26" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB26" s="10"/>
       <c r="DP26" s="15"/>
       <c r="DQ26" s="10"/>
     </row>
-    <row r="27" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I27" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J27" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K27" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L27" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M27" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N27" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O27" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P27" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q27" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R27" s="213">
-        <v>0</v>
-      </c>
-      <c r="S27" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T27" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U27" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V27" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W27" s="215">
-        <v>0</v>
-      </c>
-      <c r="X27" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="213"/>
+    <row r="27" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB27" s="10"/>
       <c r="DP27" s="15"/>
       <c r="DQ27" s="10"/>
     </row>
-    <row r="28" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I28" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J28" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K28" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L28" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M28" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N28" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O28" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P28" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q28" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R28" s="213">
-        <v>0</v>
-      </c>
-      <c r="S28" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T28" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U28" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V28" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W28" s="215">
-        <v>0</v>
-      </c>
-      <c r="X28" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="213"/>
+    <row r="28" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB28" s="10"/>
       <c r="DP28" s="15"/>
       <c r="DQ28" s="10"/>
     </row>
-    <row r="29" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I29" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J29" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K29" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L29" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M29" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N29" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O29" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P29" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q29" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R29" s="213">
-        <v>0</v>
-      </c>
-      <c r="S29" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T29" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U29" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V29" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W29" s="215">
-        <v>0</v>
-      </c>
-      <c r="X29" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="213"/>
+    <row r="29" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB29" s="10"/>
       <c r="DP29" s="15"/>
       <c r="DQ29" s="10"/>
     </row>
-    <row r="30" spans="2:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I30" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J30" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K30" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L30" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M30" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N30" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O30" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P30" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q30" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R30" s="213">
-        <v>0</v>
-      </c>
-      <c r="S30" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T30" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U30" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V30" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W30" s="215">
-        <v>0</v>
-      </c>
-      <c r="X30" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="213"/>
+    <row r="30" spans="80:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CB30" s="10"/>
       <c r="DP30" s="15"/>
       <c r="DQ30" s="10"/>
@@ -23761,36 +22701,36 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B9:D9"/>
   </mergeCells>
-  <conditionalFormatting sqref="K16:AA30">
-    <cfRule type="cellIs" dxfId="491" priority="24" operator="equal">
+  <conditionalFormatting sqref="K16:AA16">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD5 A6:F9 I6:XFD6 I8:XFD9 I7:J7 AB7:XFD7 A10:XFD1048576">
-    <cfRule type="expression" dxfId="490" priority="21">
+    <cfRule type="expression" dxfId="52" priority="21">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:AA30 K9:AA11">
-    <cfRule type="expression" dxfId="489" priority="55">
+  <conditionalFormatting sqref="K16:AA16 K9:AA11">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H8 G9">
-    <cfRule type="expression" dxfId="487" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>ISERROR(G6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="486" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>ISERROR(H9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="485" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23838,7 +22778,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K16:AA30</xm:sqref>
+          <xm:sqref>K16:AA16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -23849,14 +22789,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DQ35"/>
+  <dimension ref="A1:DQ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="10" ySplit="15" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="B17:AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24299,10 +23239,10 @@
         <v>155</v>
       </c>
       <c r="F6" s="74"/>
-      <c r="G6" s="229" t="s">
+      <c r="G6" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="230"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="90"/>
       <c r="J6" s="115" t="s">
         <v>1</v>
@@ -24367,10 +23307,10 @@
       <c r="D7" s="28"/>
       <c r="E7" s="82"/>
       <c r="F7" s="74"/>
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="239"/>
+      <c r="H7" s="230"/>
       <c r="I7" s="109"/>
       <c r="J7" s="126" t="s">
         <v>0</v>
@@ -24438,10 +23378,10 @@
         <v>Partner Level Scorecard</v>
       </c>
       <c r="F8" s="74"/>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="241"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="129"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
@@ -24518,12 +23458,12 @@
     </row>
     <row r="9" spans="1:121" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
       <c r="F9" s="57"/>
       <c r="G9" s="118" t="s">
         <v>14</v>
@@ -24547,7 +23487,7 @@
 IF((DataP[Measured Rate 
 '[% Measured']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>0.7039736901229996</v>
+        <v>0.70397369012300004</v>
       </c>
       <c r="L9" s="114">
         <f t="array" aca="1" ref="L9" ca="1">SUM(
@@ -24561,7 +23501,7 @@
 IF((DataP[See-Through Rate 
 '[% Visible']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>0.95292479761899984</v>
+        <v>0.95292479761900006</v>
       </c>
       <c r="M9" s="114">
         <f t="array" aca="1" ref="M9" ca="1">SUM(
@@ -24575,7 +23515,7 @@
 IF((DataP[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>4.7075202381199999E-2</v>
+        <v>4.7075202381199992E-2</v>
       </c>
       <c r="N9" s="114">
         <f t="array" aca="1" ref="N9" ca="1">SUM(
@@ -24589,7 +23529,7 @@
 IF((DataP[Brand Safety 
 '[% Failed']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>1.584180586379999E-2</v>
+        <v>1.5841805863800001E-2</v>
       </c>
       <c r="O9" s="114">
         <f t="array" aca="1" ref="O9" ca="1">SUM(
@@ -24603,7 +23543,7 @@
 IF((DataP[Brand Safety 
 '[% Failed by Content']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>4.7008580414999987E-4</v>
+        <v>4.7008580414999992E-4</v>
       </c>
       <c r="P9" s="114">
         <f t="array" aca="1" ref="P9" ca="1">SUM(
@@ -24617,7 +23557,7 @@
 IF((DataP[Brand Safety 
 '[% Failed by Geo']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>2.1768992240599996E-2</v>
+        <v>2.1768992240599999E-2</v>
       </c>
       <c r="Q9" s="114">
         <f t="array" aca="1" ref="Q9" ca="1">SUM(
@@ -24631,7 +23571,7 @@
 IF((DataP[Brand Safety 
 '[% Failed by Keyword']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>1.7364074924199996E-4</v>
+        <v>1.7364074924200001E-4</v>
       </c>
       <c r="R9" s="114">
         <f t="array" aca="1" ref="R9" ca="1">SUM(
@@ -24659,7 +23599,7 @@
 IF((DataP[Brand Safety 
 '[% Failed by Language']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>9.2195017271999927E-3</v>
+        <v>9.2195017271999996E-3</v>
       </c>
       <c r="T9" s="114">
         <f t="array" aca="1" ref="T9" ca="1">SUM(
@@ -24673,7 +23613,7 @@
 IF((DataP[Fraud 
 '[% Fraud']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Total Impressions],ROW(DataP[Total Impressions])-MIN(ROW(DataP[Total Impressions])),0,1))))</f>
-        <v>0.64080593717799972</v>
+        <v>0.64080593717800005</v>
       </c>
       <c r="U9" s="114">
         <f t="array" aca="1" ref="U9" ca="1">SUM(
@@ -24686,7 +23626,7 @@
 IF((DataP[Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Measured Impressions],ROW(DataP[Measured Impressions])-MIN(ROW(DataP[Measured Impressions])),0,1))))</f>
-        <v>0.63650054192099981</v>
+        <v>0.63650054192100003</v>
       </c>
       <c r="V9" s="114">
         <f t="array" aca="1" ref="V9" ca="1">SUM(
@@ -24699,7 +23639,7 @@
 IF((DataP[Display Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Measured Impressions],ROW(DataP[Measured Impressions])-MIN(ROW(DataP[Measured Impressions])),0,1))))</f>
-        <v>0.85731169793699979</v>
+        <v>0.85731169793700013</v>
       </c>
       <c r="W9" s="114">
         <f t="array" aca="1" ref="W9" ca="1">SUM(
@@ -24764,7 +23704,7 @@
 IF((DataP[Publicis Viewability 
 '[% Videos Fully in View']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataP[Measured Impressions],ROW(DataP[Measured Impressions])-MIN(ROW(DataP[Measured Impressions])),0,1))))</f>
-        <v>1.6666666666666666E-2</v>
+        <v>0.25</v>
       </c>
       <c r="CX9" s="26"/>
     </row>
@@ -25353,10 +24293,10 @@
       <c r="D12" s="28"/>
       <c r="E12" s="60"/>
       <c r="F12" s="57"/>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="237"/>
+      <c r="H12" s="228"/>
       <c r="I12" s="27"/>
       <c r="J12" s="103" t="s">
         <v>7</v>
@@ -25388,10 +24328,10 @@
       <c r="D13" s="28"/>
       <c r="E13" s="63"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="237"/>
+      <c r="H13" s="228"/>
       <c r="I13" s="27"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
@@ -25651,1115 +24591,25 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I17" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J17" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K17" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L17" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M17" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N17" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O17" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P17" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q17" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R17" s="213">
-        <v>0</v>
-      </c>
-      <c r="S17" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T17" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U17" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V17" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W17" s="215">
-        <v>0</v>
-      </c>
-      <c r="X17" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="213"/>
+    <row r="17" spans="23:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="76"/>
     </row>
-    <row r="18" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I18" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J18" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K18" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L18" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M18" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N18" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O18" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P18" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q18" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R18" s="213">
-        <v>0</v>
-      </c>
-      <c r="S18" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T18" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U18" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V18" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W18" s="215">
-        <v>0</v>
-      </c>
-      <c r="X18" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="213"/>
+    <row r="18" spans="23:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="76"/>
     </row>
-    <row r="19" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I19" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J19" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K19" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L19" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M19" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N19" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O19" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P19" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q19" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R19" s="213">
-        <v>0</v>
-      </c>
-      <c r="S19" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T19" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U19" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V19" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W19" s="215">
-        <v>0</v>
-      </c>
-      <c r="X19" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="213"/>
+    <row r="19" spans="23:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="76"/>
     </row>
-    <row r="20" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I20" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J20" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K20" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L20" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M20" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N20" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O20" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P20" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q20" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R20" s="213">
-        <v>0</v>
-      </c>
-      <c r="S20" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T20" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U20" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V20" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W20" s="215">
-        <v>0</v>
-      </c>
-      <c r="X20" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="213"/>
+    <row r="20" spans="23:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="76"/>
     </row>
-    <row r="21" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I21" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J21" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K21" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L21" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M21" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N21" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O21" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P21" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q21" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R21" s="213">
-        <v>0</v>
-      </c>
-      <c r="S21" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T21" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U21" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V21" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W21" s="215">
-        <v>0</v>
-      </c>
-      <c r="X21" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="213"/>
+    <row r="21" spans="23:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="76"/>
     </row>
-    <row r="22" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I22" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J22" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K22" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L22" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M22" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N22" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O22" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P22" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q22" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R22" s="213">
-        <v>0</v>
-      </c>
-      <c r="S22" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T22" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U22" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V22" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W22" s="215">
-        <v>0</v>
-      </c>
-      <c r="X22" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="213"/>
+    <row r="22" spans="23:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BM22" s="14" t="e">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="23" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I23" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J23" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K23" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L23" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M23" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N23" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O23" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P23" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q23" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R23" s="213">
-        <v>0</v>
-      </c>
-      <c r="S23" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T23" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U23" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V23" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W23" s="215">
-        <v>0</v>
-      </c>
-      <c r="X23" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="213"/>
-    </row>
-    <row r="24" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I24" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J24" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K24" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L24" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M24" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N24" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O24" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P24" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q24" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R24" s="213">
-        <v>0</v>
-      </c>
-      <c r="S24" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T24" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U24" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V24" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W24" s="215">
-        <v>0</v>
-      </c>
-      <c r="X24" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="213"/>
-    </row>
-    <row r="25" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I25" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J25" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K25" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L25" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M25" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N25" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O25" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P25" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q25" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R25" s="213">
-        <v>0</v>
-      </c>
-      <c r="S25" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T25" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U25" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V25" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W25" s="215">
-        <v>0</v>
-      </c>
-      <c r="X25" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="213"/>
-    </row>
-    <row r="26" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I26" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J26" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K26" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L26" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M26" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N26" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O26" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P26" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q26" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R26" s="213">
-        <v>0</v>
-      </c>
-      <c r="S26" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T26" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U26" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V26" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W26" s="215">
-        <v>0</v>
-      </c>
-      <c r="X26" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="213"/>
-    </row>
-    <row r="27" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I27" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J27" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K27" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L27" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M27" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N27" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O27" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P27" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q27" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R27" s="213">
-        <v>0</v>
-      </c>
-      <c r="S27" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T27" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U27" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V27" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W27" s="215">
-        <v>0</v>
-      </c>
-      <c r="X27" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="213"/>
-    </row>
-    <row r="28" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I28" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J28" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K28" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L28" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M28" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N28" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O28" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P28" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q28" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R28" s="213">
-        <v>0</v>
-      </c>
-      <c r="S28" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T28" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U28" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V28" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W28" s="215">
-        <v>0</v>
-      </c>
-      <c r="X28" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="213"/>
-    </row>
-    <row r="29" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I29" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J29" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K29" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L29" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M29" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N29" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O29" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P29" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q29" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R29" s="213">
-        <v>0</v>
-      </c>
-      <c r="S29" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T29" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U29" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V29" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W29" s="215">
-        <v>0</v>
-      </c>
-      <c r="X29" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="213"/>
-    </row>
-    <row r="30" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="210">
-        <v>13148469</v>
-      </c>
-      <c r="I30" s="211">
-        <v>19828295</v>
-      </c>
-      <c r="J30" s="212">
-        <v>0.68152249431199996</v>
-      </c>
-      <c r="K30" s="213">
-        <v>0.70397369012300004</v>
-      </c>
-      <c r="L30" s="213">
-        <v>0.95292479761899995</v>
-      </c>
-      <c r="M30" s="213">
-        <v>4.7075202381199999E-2</v>
-      </c>
-      <c r="N30" s="213">
-        <v>1.5841805863800001E-2</v>
-      </c>
-      <c r="O30" s="213">
-        <v>4.7008580414999998E-4</v>
-      </c>
-      <c r="P30" s="213">
-        <v>2.1768992240599999E-2</v>
-      </c>
-      <c r="Q30" s="213">
-        <v>1.7364074924200001E-4</v>
-      </c>
-      <c r="R30" s="213">
-        <v>0</v>
-      </c>
-      <c r="S30" s="213">
-        <v>9.2195017271999996E-3</v>
-      </c>
-      <c r="T30" s="213">
-        <v>0.64080593717800005</v>
-      </c>
-      <c r="U30" s="213">
-        <v>0.63650054192100003</v>
-      </c>
-      <c r="V30" s="214">
-        <v>0.85731169793700002</v>
-      </c>
-      <c r="W30" s="215">
-        <v>0</v>
-      </c>
-      <c r="X30" s="214">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="213">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="213">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="213"/>
-    </row>
-    <row r="31" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W31" s="76"/>
-    </row>
-    <row r="32" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W32" s="76"/>
-    </row>
-    <row r="33" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W33" s="76"/>
-    </row>
-    <row r="34" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W34" s="76"/>
-    </row>
-    <row r="35" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W35" s="76"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
@@ -26771,31 +24621,31 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G12:H12"/>
   </mergeCells>
-  <conditionalFormatting sqref="K16:AA30">
-    <cfRule type="cellIs" dxfId="430" priority="32" operator="equal">
+  <conditionalFormatting sqref="K16:AA16">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:G9 A1:XFD6 I9:XFD9 A10:XFD1048576 A8:XFD8 A7:J7 AB7:XFD7">
-    <cfRule type="expression" dxfId="429" priority="31">
+  <conditionalFormatting sqref="A9:G9 A1:XFD6 I9:XFD9 A8:XFD8 A7:J7 AB7:XFD7 A10:XFD1048576">
+    <cfRule type="expression" dxfId="44" priority="31">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:AA30 K9:AA11">
-    <cfRule type="expression" dxfId="428" priority="35">
+  <conditionalFormatting sqref="K16:AA16 K9:AA11">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="426" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>ISERROR(H9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="425" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26815,7 +24665,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"Region (Team), Partner Type"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X18" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -26846,7 +24696,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K16:AA30</xm:sqref>
+          <xm:sqref>K16:AA16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -26857,14 +24707,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:DQ21"/>
+  <dimension ref="A1:DQ16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="10" ySplit="15" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="B17:AA220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27312,15 +25162,15 @@
         <v>155</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="234" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="243"/>
+      <c r="E6" s="234"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="229" t="s">
+      <c r="G6" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="230"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="90"/>
       <c r="J6" s="115" t="s">
         <v>1</v>
@@ -27385,10 +25235,10 @@
       <c r="D7" s="28"/>
       <c r="E7" s="63"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="239"/>
+      <c r="H7" s="230"/>
       <c r="I7" s="109"/>
       <c r="J7" s="126" t="s">
         <v>0</v>
@@ -27450,16 +25300,16 @@
       <c r="A8" s="22"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
-      <c r="D8" s="244" t="str">
+      <c r="D8" s="235" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;" Level Scorecard"</f>
         <v>Campaign &amp; Partner Level Scorecard</v>
       </c>
-      <c r="E8" s="244"/>
+      <c r="E8" s="235"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="241"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="129"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
@@ -27536,12 +25386,12 @@
     </row>
     <row r="9" spans="1:121" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
       <c r="F9" s="28"/>
       <c r="G9" s="118" t="s">
         <v>14</v>
@@ -27553,7 +25403,7 @@
       <c r="J9" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="100" t="e">
         <f t="array" aca="1" ref="K9" ca="1">SUM(
 IF((DataCP[Measured Rate 
 '[% Measured']]&lt;&gt;"NULL"),
@@ -27565,9 +25415,9 @@
 IF((DataCP[Measured Rate 
 '[% Measured']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.7</v>
-      </c>
-      <c r="L9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="100" t="e">
         <f t="array" aca="1" ref="L9" ca="1">SUM(
 IF((DataCP[See-Through Rate 
 '[% Visible']]&lt;&gt;"NULL"),
@@ -27579,9 +25429,9 @@
 IF((DataCP[See-Through Rate 
 '[% Visible']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.98</v>
-      </c>
-      <c r="M9" s="112">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="112" t="e">
         <f t="array" aca="1" ref="M9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL"),
@@ -27593,9 +25443,9 @@
 IF((DataCP[Brand Safety 
 '[% Passed']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.95</v>
-      </c>
-      <c r="N9" s="112">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" s="112" t="e">
         <f t="array" aca="1" ref="N9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Failed']]&lt;&gt;"NULL"),
@@ -27607,9 +25457,9 @@
 IF((DataCP[Brand Safety 
 '[% Failed']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="112">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" s="112" t="e">
         <f t="array" aca="1" ref="O9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Failed by Content']]&lt;&gt;"NULL"),
@@ -27621,9 +25471,9 @@
 IF((DataCP[Brand Safety 
 '[% Failed by Content']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="112">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P9" s="112" t="e">
         <f t="array" aca="1" ref="P9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Failed by Geo']]&lt;&gt;"NULL"),
@@ -27635,9 +25485,9 @@
 IF((DataCP[Brand Safety 
 '[% Failed by Geo']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.02</v>
-      </c>
-      <c r="Q9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" s="100" t="e">
         <f t="array" aca="1" ref="Q9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Failed by Keyword']]&lt;&gt;"NULL"),
@@ -27649,9 +25499,9 @@
 IF((DataCP[Brand Safety 
 '[% Failed by Keyword']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="R9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="100" t="e">
         <f t="array" aca="1" ref="R9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Failed by Blacklist']]&lt;&gt;"NULL"),
@@ -27663,9 +25513,9 @@
 IF((DataCP[Brand Safety 
 '[% Failed by Blacklist']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" s="100" t="e">
         <f t="array" aca="1" ref="S9" ca="1">SUM(
 IF((DataCP[Brand Safety 
 '[% Failed by Language']]&lt;&gt;"NULL"),
@@ -27677,9 +25527,9 @@
 IF((DataCP[Brand Safety 
 '[% Failed by Language']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T9" s="100" t="e">
         <f t="array" aca="1" ref="T9" ca="1">SUM(
 IF((DataCP[Fraud 
 '[% Fraud']]&lt;&gt;"NULL"),
@@ -27691,9 +25541,9 @@
 IF((DataCP[Fraud 
 '[% Fraud']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Total Impressions],ROW(DataCP[Total Impressions])-MIN(ROW(DataCP[Total Impressions])),0,1))))</f>
-        <v>0.03</v>
-      </c>
-      <c r="U9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9" s="100" t="e">
         <f t="array" aca="1" ref="U9" ca="1">SUM(
 IF((DataCP[Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
@@ -27704,9 +25554,9 @@
 IF((DataCP[Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V9" s="100" t="e">
         <f t="array" aca="1" ref="V9" ca="1">SUM(
 IF((DataCP[Display Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
@@ -27717,9 +25567,9 @@
 IF((DataCP[Display Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.6</v>
-      </c>
-      <c r="W9" s="112">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W9" s="112" t="e">
         <f t="array" aca="1" ref="W9" ca="1">SUM(
 IF((DataCP[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
@@ -27730,9 +25580,9 @@
 IF((DataCP[Video Viewability 
 '[Total Viewable Rate (Total Net Metrics)']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.5</v>
-      </c>
-      <c r="X9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X9" s="100" t="e">
         <f t="array" aca="1" ref="X9" ca="1">SUM(
 IF((DataCP[GroupM Viewability 
 '[% Display Ads Fully in View']]&lt;&gt;"NULL"),
@@ -27743,9 +25593,9 @@
 IF((DataCP[GroupM Viewability 
 '[% Display Ads Fully in View']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.35</v>
-      </c>
-      <c r="Y9" s="112">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y9" s="112" t="e">
         <f t="array" aca="1" ref="Y9" ca="1">SUM(
 IF((DataCP[GroupM Viewability 
 '[% Videos Fully in View']]&lt;&gt;"NULL"),
@@ -27756,9 +25606,9 @@
 IF((DataCP[GroupM Viewability 
 '[% Videos Fully in View']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.25</v>
-      </c>
-      <c r="Z9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="100" t="e">
         <f t="array" aca="1" ref="Z9" ca="1">SUM(
 IF((DataCP[Publicis Viewability 
 '[% Display Ads Fully in View']]&lt;&gt;"NULL"),
@@ -27769,9 +25619,9 @@
 IF((DataCP[Publicis Viewability 
 '[% Display Ads Fully in View']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.35</v>
-      </c>
-      <c r="AA9" s="100">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA9" s="100" t="e">
         <f t="array" aca="1" ref="AA9" ca="1">SUM(
 IF((DataCP[Publicis Viewability 
 '[% Videos Fully in View']]&lt;&gt;"NULL"),
@@ -27782,15 +25632,15 @@
 IF((DataCP[Publicis Viewability 
 '[% Videos Fully in View']]&lt;&gt;"NULL"),
 SUBTOTAL(9,OFFSET(DataCP[Measured Impressions],ROW(DataCP[Measured Impressions])-MIN(ROW(DataCP[Measured Impressions])),0,1))))</f>
-        <v>0.25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AB9" s="26"/>
     </row>
     <row r="10" spans="1:121" s="18" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="245"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
       <c r="E10" s="58"/>
       <c r="F10" s="28"/>
       <c r="G10" s="116" t="s">
@@ -28076,10 +25926,10 @@
       <c r="AB10" s="26"/>
     </row>
     <row r="11" spans="1:121" s="18" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="248"/>
+      <c r="A11" s="238"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="58"/>
       <c r="F11" s="28"/>
       <c r="G11" s="116" t="s">
@@ -28365,16 +26215,16 @@
       <c r="AB11" s="26"/>
     </row>
     <row r="12" spans="1:121" s="18" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="58"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="237"/>
+      <c r="H12" s="228"/>
       <c r="I12" s="27"/>
       <c r="J12" s="103" t="s">
         <v>7</v>
@@ -28405,10 +26255,10 @@
       <c r="D13" s="33"/>
       <c r="E13" s="58"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="237"/>
+      <c r="H13" s="228"/>
       <c r="I13" s="27"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
@@ -28582,96 +26432,84 @@
       </c>
     </row>
     <row r="16" spans="1:121" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="str">
-        <f>IFERROR(
-IF(DataT[[#Headers],[Region (Team)]]="Brand",VLOOKUP(DataCP[[#This Row],[Campaign]],Map_Campaign[],2,0),
-IF(DataT[[#Headers],[Region (Team)]]="Region (Team)",VLOOKUP(DataCP[[#This Row],[Team]],Map_Team[],2,0),
-IF(DataT[[#Headers],[Region (Team)]]="Region (Campaign)",VLOOKUP(DataCP[[#This Row],[Campaign]],Map_Campaign[],3,0),
-IF(DataT[[#Headers],[Region (Team)]]="Partner Type",VLOOKUP(DataCP[[#This Row],[Partner]],Map_Partner[],2,0),
-IF(DataT[[#Headers],[Region (Team)]]="Device Type",VLOOKUP(DataCP[[#This Row],[Placement]],Map_Placement[],3,0),
-IF(DataT[[#Headers],[Region (Team)]]="Creative Size",VLOOKUP(DataCP[[#This Row],[Placement]],Map_Placement[],2,0),"Not a mapping option.")))))),
-"[Unmapped]")</f>
-        <v>[Unmapped]</v>
+      <c r="B16" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="47">
-        <v>292953764</v>
-      </c>
-      <c r="J16" s="48">
-        <v>450881961</v>
-      </c>
-      <c r="K16" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="L16" s="49">
-        <v>0.98</v>
-      </c>
-      <c r="M16" s="49">
-        <v>0.95</v>
-      </c>
-      <c r="N16" s="49">
-        <v>0.05</v>
-      </c>
-      <c r="O16" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="P16" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="Q16" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="R16" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="S16" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="T16" s="49">
-        <v>0.03</v>
-      </c>
-      <c r="U16" s="49">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V16" s="49">
-        <v>0.6</v>
-      </c>
-      <c r="W16" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="X16" s="49">
-        <v>0.35</v>
-      </c>
-      <c r="Y16" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="Z16" s="49">
-        <v>0.35</v>
-      </c>
-      <c r="AA16" s="49">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+        <v>173</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="R16" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="S16" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="V16" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="W16" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="X16" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y16" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z16" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA16" s="49" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
@@ -28689,34 +26527,34 @@
     <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:AA16">
-    <cfRule type="cellIs" dxfId="370" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:D8 A1:XFD5 A9:G9 F6:XFD6 E7:J7 F8:XFD8 I9:XFD9 A10:XFD1048576 AB7:XFD7">
-    <cfRule type="expression" dxfId="369" priority="8">
+  <conditionalFormatting sqref="A6:D8 A1:XFD5 A9:G9 F6:XFD6 E7:J7 F8:XFD8 I9:XFD9 AB7:XFD7 A10:XFD1048576">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:AA16 K9:AA11">
-    <cfRule type="expression" dxfId="368" priority="11">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="12">
+    <cfRule type="expression" dxfId="35" priority="12">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="366" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>ISERROR(H9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="365" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please select/enter a value from 1 to 5 from the dropdown." sqref="AB12:XFD13 K10:AA11 J11 G9:G11 J9 A13:D13 H9" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please select/enter a value from 1 to 5 from the dropdown." sqref="J10" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>DeviceDropdown</formula1>
@@ -28731,9 +26569,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell will highlight red if performance deviates by more than this percentage of the client goal." sqref="J4" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"Brand, Region (Team), Region (Campaign), Partner Type"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29232,14 +27067,14 @@
       <c r="D6" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="234" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="243"/>
-      <c r="G6" s="229" t="s">
+      <c r="F6" s="234"/>
+      <c r="G6" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="230"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="90"/>
       <c r="J6" s="115" t="s">
         <v>1</v>
@@ -29303,10 +27138,10 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="60"/>
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="239"/>
+      <c r="H7" s="230"/>
       <c r="I7" s="109"/>
       <c r="J7" s="126" t="s">
         <v>0</v>
@@ -29368,15 +27203,15 @@
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
-      <c r="E8" s="244" t="str">
+      <c r="E8" s="235" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;" Level Scorecard"</f>
         <v>Partner &amp; Placement Level Scorecard</v>
       </c>
-      <c r="F8" s="244"/>
-      <c r="G8" s="249" t="s">
+      <c r="F8" s="235"/>
+      <c r="G8" s="240" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="250"/>
+      <c r="H8" s="241"/>
       <c r="I8" s="129"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
@@ -29452,13 +27287,13 @@
     </row>
     <row r="9" spans="1:121" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="G9" s="121" t="s">
         <v>14</v>
       </c>
@@ -29702,10 +27537,10 @@
       </c>
     </row>
     <row r="10" spans="1:121" s="18" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="245"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
       <c r="E10" s="60"/>
       <c r="F10" s="60"/>
       <c r="G10" s="124" t="s">
@@ -29990,10 +27825,10 @@
       </c>
     </row>
     <row r="11" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="248"/>
+      <c r="A11" s="238"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
       <c r="G11" s="124" t="s">
@@ -30278,16 +28113,16 @@
       </c>
     </row>
     <row r="12" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
-      <c r="G12" s="251" t="s">
+      <c r="G12" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="251"/>
+      <c r="H12" s="242"/>
       <c r="I12" s="27"/>
       <c r="J12" s="103" t="s">
         <v>7</v>
@@ -30317,10 +28152,10 @@
       <c r="D13" s="33"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="251" t="s">
+      <c r="G13" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="251"/>
+      <c r="H13" s="242"/>
       <c r="I13" s="27"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
@@ -30602,30 +28437,30 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:AA16">
-    <cfRule type="cellIs" dxfId="310" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E8 A1:XFD5 A9:G9 G6:XFD6 F7:J7 G8:XFD8 I9:XFD9 A10:XFD1048576 AB7:XFD7">
-    <cfRule type="expression" dxfId="309" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:AA16 K9:AA11">
-    <cfRule type="expression" dxfId="308" priority="12">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="13">
+    <cfRule type="expression" dxfId="28" priority="13">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="306" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>ISERROR(H9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="305" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31154,11 +28989,11 @@
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="243" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="253"/>
-      <c r="I6" s="254"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="245"/>
       <c r="J6" s="24" t="s">
         <v>1</v>
       </c>
@@ -31222,11 +29057,11 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="255" t="s">
+      <c r="G7" s="246" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="256"/>
-      <c r="I7" s="257"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="248"/>
       <c r="J7" s="54" t="s">
         <v>0</v>
       </c>
@@ -31293,11 +29128,11 @@
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="249" t="s">
+      <c r="G8" s="240" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="250"/>
-      <c r="I8" s="258"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="249"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
       </c>
@@ -32211,11 +30046,11 @@
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="251" t="s">
+      <c r="G12" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="251"/>
-      <c r="I12" s="259"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="250"/>
       <c r="J12" s="106" t="s">
         <v>7</v>
       </c>
@@ -32245,11 +30080,11 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="251" t="s">
+      <c r="G13" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="251"/>
-      <c r="I13" s="259"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="250"/>
       <c r="J13" s="104" t="s">
         <v>6</v>
       </c>
@@ -32524,25 +30359,25 @@
     <mergeCell ref="G12:I12"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:AA16">
-    <cfRule type="cellIs" dxfId="250" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD6 A8:XFD1048576 A7:J7 AB7:XFD7">
-    <cfRule type="expression" dxfId="249" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:AA16 K9:AA11">
-    <cfRule type="expression" dxfId="248" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="246" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33063,11 +30898,11 @@
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="263" t="s">
+      <c r="G6" s="254" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="264"/>
-      <c r="I6" s="265"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="256"/>
       <c r="J6" s="24" t="s">
         <v>1</v>
       </c>
@@ -33125,16 +30960,16 @@
     </row>
     <row r="7" spans="1:121" s="18" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
       <c r="E7" s="70"/>
       <c r="F7" s="70"/>
-      <c r="G7" s="260" t="s">
+      <c r="G7" s="251" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="261"/>
-      <c r="I7" s="262"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="253"/>
       <c r="J7" s="54" t="s">
         <v>0</v>
       </c>
@@ -33200,11 +31035,11 @@
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="241"/>
-      <c r="I8" s="267"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="258"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
       </c>
@@ -34100,17 +31935,17 @@
       </c>
     </row>
     <row r="12" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="237"/>
-      <c r="I12" s="266"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="257"/>
       <c r="J12" s="106" t="s">
         <v>7</v>
       </c>
@@ -34139,11 +31974,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="237"/>
-      <c r="I13" s="266"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="257"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
       </c>
@@ -34668,25 +32503,25 @@
     <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:AA16">
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD6 B9:XFD9 A10:XFD1048576 A8:XFD8 A7:J7 AB7:XFD7">
-    <cfRule type="expression" dxfId="190" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:AA16 K9:AA11">
-    <cfRule type="expression" dxfId="189" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="187" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35211,11 +33046,11 @@
         <v>155</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="263" t="s">
+      <c r="G6" s="254" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="264"/>
-      <c r="I6" s="265"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="256"/>
       <c r="J6" s="24" t="s">
         <v>1</v>
       </c>
@@ -35279,11 +33114,11 @@
       <c r="D7" s="65"/>
       <c r="E7" s="101"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="260" t="s">
+      <c r="G7" s="251" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="261"/>
-      <c r="I7" s="262"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="253"/>
       <c r="J7" s="54" t="s">
         <v>0</v>
       </c>
@@ -35350,11 +33185,11 @@
         <v>Partner &amp; Device Level Scorecard</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="241"/>
-      <c r="I8" s="267"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="258"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
       </c>
@@ -36256,17 +34091,17 @@
       <c r="AB11" s="26"/>
     </row>
     <row r="12" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="237"/>
-      <c r="I12" s="266"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="257"/>
       <c r="J12" s="106" t="s">
         <v>7</v>
       </c>
@@ -36296,11 +34131,11 @@
       <c r="D13" s="69"/>
       <c r="E13" s="56"/>
       <c r="F13" s="53"/>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="237"/>
-      <c r="I13" s="266"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="257"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
       </c>
@@ -36595,30 +34430,30 @@
     <mergeCell ref="G7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="N16:AA16">
-    <cfRule type="cellIs" dxfId="132" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:XFD1048576 A16:J20 N16:XFD20 A1:XFD6 A8:XFD15 A7:J7 AB7:XFD7">
-    <cfRule type="expression" dxfId="131" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:AA16 K9:AA11">
-    <cfRule type="expression" dxfId="130" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:M20">
-    <cfRule type="expression" dxfId="128" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>ISERROR(K16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="127" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37129,16 +34964,16 @@
         <v>155</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="234" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="243"/>
+      <c r="E6" s="234"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="260" t="s">
+      <c r="G6" s="251" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="261"/>
-      <c r="I6" s="262"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="253"/>
       <c r="J6" s="115" t="s">
         <v>1</v>
       </c>
@@ -37202,11 +35037,11 @@
       <c r="D7" s="28"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="268" t="s">
+      <c r="G7" s="259" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="237"/>
-      <c r="I7" s="266"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="257"/>
       <c r="J7" s="106" t="s">
         <v>0</v>
       </c>
@@ -37266,17 +35101,17 @@
     <row r="8" spans="1:121" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
-      <c r="D8" s="244" t="str">
+      <c r="D8" s="235" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;" Level Scorecard"</f>
         <v>Campaign, Partner, Device Level Scorecard</v>
       </c>
-      <c r="E8" s="244"/>
+      <c r="E8" s="235"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="241"/>
-      <c r="I8" s="267"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="258"/>
       <c r="J8" s="127" t="s">
         <v>16</v>
       </c>
@@ -37351,13 +35186,13 @@
       <c r="AB8" s="26"/>
     </row>
     <row r="9" spans="1:121" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="G9" s="118" t="s">
         <v>14</v>
       </c>
@@ -37887,10 +35722,10 @@
       <c r="AB10" s="26"/>
     </row>
     <row r="11" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="231"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="248"/>
+      <c r="A11" s="222"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
       <c r="G11" s="116"/>
@@ -38174,17 +36009,17 @@
       <c r="AB11" s="26"/>
     </row>
     <row r="12" spans="1:121" s="18" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="237"/>
-      <c r="I12" s="266"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="257"/>
       <c r="J12" s="106" t="s">
         <v>7</v>
       </c>
@@ -38213,11 +36048,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="63"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="237"/>
-      <c r="I13" s="266"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="257"/>
       <c r="J13" s="107" t="s">
         <v>6</v>
       </c>
@@ -38498,25 +36333,25 @@
     <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:AA16">
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:D6 A1:XFD5 A8:D8 F6:XFD6 A7:J7 F8:XFD8 A9:XFD1048576 AB7:XFD7">
-    <cfRule type="expression" dxfId="71" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:AA16 K9:AA11">
-    <cfRule type="expression" dxfId="70" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>IF(K$7="N/A",0,IF(K$7="Above",K9&lt;=(1-$J$4)*K$8,K9&gt;=(1+$J$4)*K$8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>IF(OR(K$7="N/A",K9=0),0,IF(K$7="Above",K9&gt;=(1+$J$3)*K$8,K9&lt;=(1-$J$3)*K$8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AA7">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISERROR(K7)</formula>
     </cfRule>
   </conditionalFormatting>
